--- a/translate.xlsx
+++ b/translate.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="9975"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="20730" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="451">
   <si>
     <t>Account</t>
   </si>
@@ -1330,13 +1330,52 @@
   </si>
   <si>
     <t>設定</t>
+  </si>
+  <si>
+    <t>ウェブサイト</t>
+  </si>
+  <si>
+    <t>自動車</t>
+  </si>
+  <si>
+    <t>会計</t>
+  </si>
+  <si>
+    <t>競売</t>
+  </si>
+  <si>
+    <t>全</t>
+  </si>
+  <si>
+    <t>競売 追加</t>
+  </si>
+  <si>
+    <t>新追加</t>
+  </si>
+  <si>
+    <t>修理追加</t>
+  </si>
+  <si>
+    <t>住所</t>
+  </si>
+  <si>
+    <t>動作</t>
+  </si>
+  <si>
+    <t>アクティブ</t>
+  </si>
+  <si>
+    <t>陸送追加</t>
+  </si>
+  <si>
+    <t>高度選択</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1351,6 +1390,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1373,9 +1418,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1465,7 +1511,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1500,7 +1545,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1676,21 +1720,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="B226" sqref="B226"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="56" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="26.25">
       <c r="A1" s="1" t="s">
         <v>401</v>
       </c>
@@ -1698,31 +1742,40 @@
         <v>402</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1733,63 +1786,84 @@
         <v>403</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="22.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1800,7 +1874,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1811,15 +1885,18 @@
         <v>404</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1827,7 +1904,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1835,7 +1912,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1843,7 +1920,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1851,7 +1928,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1859,7 +1936,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1870,7 +1947,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1878,7 +1955,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -1886,7 +1963,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1894,7 +1971,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1902,7 +1979,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1910,7 +1987,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1918,7 +1995,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -1926,7 +2003,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1934,7 +2011,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1942,7 +2019,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -1950,7 +2027,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -1961,7 +2038,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -1969,7 +2046,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -1977,7 +2054,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -1988,7 +2065,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -1996,7 +2073,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -2004,7 +2081,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -2012,7 +2089,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -2020,7 +2097,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -2028,7 +2105,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -2036,7 +2113,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -2044,7 +2121,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -2055,7 +2132,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -2063,7 +2140,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>67</v>
       </c>
@@ -2074,7 +2151,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>69</v>
       </c>
@@ -2082,7 +2159,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>70</v>
       </c>
@@ -2090,7 +2167,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>71</v>
       </c>
@@ -2098,7 +2175,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>73</v>
       </c>
@@ -2106,7 +2183,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>75</v>
       </c>
@@ -2117,7 +2194,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>76</v>
       </c>
@@ -2125,7 +2202,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>78</v>
       </c>
@@ -2133,7 +2210,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>79</v>
       </c>
@@ -2141,7 +2218,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>81</v>
       </c>
@@ -2149,7 +2226,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -2157,7 +2234,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>83</v>
       </c>
@@ -2168,7 +2245,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>84</v>
       </c>
@@ -2179,7 +2256,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>85</v>
       </c>
@@ -2190,7 +2267,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>87</v>
       </c>
@@ -2201,7 +2278,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>89</v>
       </c>
@@ -2209,7 +2286,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>91</v>
       </c>
@@ -2217,7 +2294,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>92</v>
       </c>
@@ -2225,7 +2302,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>93</v>
       </c>
@@ -2233,7 +2310,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -2241,7 +2318,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>95</v>
       </c>
@@ -2249,7 +2326,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>97</v>
       </c>
@@ -2257,7 +2334,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>98</v>
       </c>
@@ -2268,7 +2345,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>99</v>
       </c>
@@ -2279,7 +2356,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>100</v>
       </c>
@@ -2287,7 +2364,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>101</v>
       </c>
@@ -2295,7 +2372,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>103</v>
       </c>
@@ -2303,7 +2380,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>105</v>
       </c>
@@ -2311,7 +2388,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>107</v>
       </c>
@@ -2319,7 +2396,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>108</v>
       </c>
@@ -2327,7 +2404,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>110</v>
       </c>
@@ -2335,7 +2412,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>112</v>
       </c>
@@ -2343,7 +2420,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>114</v>
       </c>
@@ -2351,7 +2428,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>116</v>
       </c>
@@ -2359,7 +2436,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>118</v>
       </c>
@@ -2367,7 +2444,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>119</v>
       </c>
@@ -2375,7 +2452,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>120</v>
       </c>
@@ -2383,7 +2460,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>122</v>
       </c>
@@ -2391,7 +2468,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>123</v>
       </c>
@@ -2399,7 +2476,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>124</v>
       </c>
@@ -2407,7 +2484,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>126</v>
       </c>
@@ -2415,7 +2492,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>127</v>
       </c>
@@ -2423,7 +2500,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>129</v>
       </c>
@@ -2431,7 +2508,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>131</v>
       </c>
@@ -2439,7 +2516,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>132</v>
       </c>
@@ -2447,7 +2524,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>133</v>
       </c>
@@ -2455,7 +2532,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>134</v>
       </c>
@@ -2463,7 +2540,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>135</v>
       </c>
@@ -2471,7 +2548,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>136</v>
       </c>
@@ -2479,7 +2556,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>137</v>
       </c>
@@ -2487,7 +2564,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>138</v>
       </c>
@@ -2495,7 +2572,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>139</v>
       </c>
@@ -2503,7 +2580,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>140</v>
       </c>
@@ -2511,7 +2588,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>141</v>
       </c>
@@ -2519,7 +2596,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>142</v>
       </c>
@@ -2527,7 +2604,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>144</v>
       </c>
@@ -2535,7 +2612,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>145</v>
       </c>
@@ -2543,7 +2620,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>146</v>
       </c>
@@ -2551,7 +2628,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>147</v>
       </c>
@@ -2559,7 +2636,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>148</v>
       </c>
@@ -2567,7 +2644,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>150</v>
       </c>
@@ -2575,7 +2652,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>151</v>
       </c>
@@ -2583,7 +2660,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>152</v>
       </c>
@@ -2591,7 +2668,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>153</v>
       </c>
@@ -2599,7 +2676,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>154</v>
       </c>
@@ -2607,7 +2684,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>155</v>
       </c>
@@ -2615,7 +2692,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>157</v>
       </c>
@@ -2623,7 +2700,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>159</v>
       </c>
@@ -2631,7 +2708,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>160</v>
       </c>
@@ -2639,7 +2716,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>161</v>
       </c>
@@ -2647,7 +2724,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>162</v>
       </c>
@@ -2655,7 +2732,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>163</v>
       </c>
@@ -2663,7 +2740,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>164</v>
       </c>
@@ -2671,7 +2748,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>166</v>
       </c>
@@ -2679,7 +2756,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>168</v>
       </c>
@@ -2687,7 +2764,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>169</v>
       </c>
@@ -2695,7 +2772,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>171</v>
       </c>
@@ -2703,7 +2780,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>172</v>
       </c>
@@ -2711,7 +2788,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>173</v>
       </c>
@@ -2719,7 +2796,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>174</v>
       </c>
@@ -2727,7 +2804,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>176</v>
       </c>
@@ -2735,7 +2812,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>177</v>
       </c>
@@ -2743,7 +2820,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>179</v>
       </c>
@@ -2751,7 +2828,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>181</v>
       </c>
@@ -2759,7 +2836,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>182</v>
       </c>
@@ -2767,7 +2844,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>183</v>
       </c>
@@ -2775,7 +2852,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>185</v>
       </c>
@@ -2783,7 +2860,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>187</v>
       </c>
@@ -2791,7 +2868,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>189</v>
       </c>
@@ -2799,7 +2876,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>190</v>
       </c>
@@ -2807,7 +2884,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>191</v>
       </c>
@@ -2815,7 +2892,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>192</v>
       </c>
@@ -2823,7 +2900,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>194</v>
       </c>
@@ -2831,7 +2908,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>196</v>
       </c>
@@ -2839,7 +2916,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>197</v>
       </c>
@@ -2847,7 +2924,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>199</v>
       </c>
@@ -2855,7 +2932,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>200</v>
       </c>
@@ -2863,7 +2940,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>201</v>
       </c>
@@ -2871,7 +2948,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>202</v>
       </c>
@@ -2879,7 +2956,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>203</v>
       </c>
@@ -2887,7 +2964,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>204</v>
       </c>
@@ -2895,7 +2972,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>205</v>
       </c>
@@ -2903,7 +2980,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>207</v>
       </c>
@@ -2911,7 +2988,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>208</v>
       </c>
@@ -2919,7 +2996,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>209</v>
       </c>
@@ -2927,7 +3004,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>210</v>
       </c>
@@ -2935,7 +3012,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>211</v>
       </c>
@@ -2946,7 +3023,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>212</v>
       </c>
@@ -2954,7 +3031,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>214</v>
       </c>
@@ -2962,7 +3039,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>216</v>
       </c>
@@ -2970,7 +3047,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>217</v>
       </c>
@@ -2978,7 +3055,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>218</v>
       </c>
@@ -2986,7 +3063,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>220</v>
       </c>
@@ -2994,7 +3071,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>222</v>
       </c>
@@ -3002,7 +3079,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>223</v>
       </c>
@@ -3010,7 +3087,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>225</v>
       </c>
@@ -3018,7 +3095,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>227</v>
       </c>
@@ -3026,7 +3103,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>228</v>
       </c>
@@ -3034,7 +3111,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
         <v>230</v>
       </c>
@@ -3042,7 +3119,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
         <v>232</v>
       </c>
@@ -3050,7 +3127,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
         <v>234</v>
       </c>
@@ -3058,7 +3135,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
         <v>236</v>
       </c>
@@ -3066,7 +3143,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
         <v>238</v>
       </c>
@@ -3074,7 +3151,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
         <v>240</v>
       </c>
@@ -3082,7 +3159,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
         <v>242</v>
       </c>
@@ -3090,7 +3167,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
         <v>244</v>
       </c>
@@ -3098,7 +3175,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
         <v>246</v>
       </c>
@@ -3106,7 +3183,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
         <v>248</v>
       </c>
@@ -3114,7 +3191,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
         <v>250</v>
       </c>
@@ -3122,7 +3199,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
         <v>252</v>
       </c>
@@ -3130,7 +3207,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
         <v>253</v>
       </c>
@@ -3138,7 +3215,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
         <v>255</v>
       </c>
@@ -3146,7 +3223,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
         <v>257</v>
       </c>
@@ -3154,7 +3231,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
         <v>258</v>
       </c>
@@ -3162,7 +3239,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
         <v>260</v>
       </c>
@@ -3170,7 +3247,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
         <v>261</v>
       </c>
@@ -3178,7 +3255,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
         <v>262</v>
       </c>
@@ -3186,7 +3263,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
         <v>264</v>
       </c>
@@ -3194,7 +3271,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
         <v>266</v>
       </c>
@@ -3202,7 +3279,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
         <v>267</v>
       </c>
@@ -3210,7 +3287,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
         <v>268</v>
       </c>
@@ -3218,7 +3295,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
         <v>270</v>
       </c>
@@ -3226,7 +3303,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
         <v>271</v>
       </c>
@@ -3234,7 +3311,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
         <v>273</v>
       </c>
@@ -3242,7 +3319,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
         <v>274</v>
       </c>
@@ -3250,7 +3327,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
         <v>276</v>
       </c>
@@ -3258,7 +3335,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
         <v>278</v>
       </c>
@@ -3266,7 +3343,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
         <v>280</v>
       </c>
@@ -3274,7 +3351,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
         <v>282</v>
       </c>
@@ -3282,7 +3359,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
         <v>284</v>
       </c>
@@ -3290,7 +3367,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
         <v>285</v>
       </c>
@@ -3298,7 +3375,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
         <v>287</v>
       </c>
@@ -3306,7 +3383,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
         <v>289</v>
       </c>
@@ -3314,7 +3391,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
         <v>291</v>
       </c>
@@ -3322,7 +3399,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
         <v>292</v>
       </c>
@@ -3330,7 +3407,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
         <v>294</v>
       </c>
@@ -3338,7 +3415,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
         <v>296</v>
       </c>
@@ -3346,7 +3423,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
         <v>298</v>
       </c>
@@ -3354,7 +3431,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
         <v>300</v>
       </c>
@@ -3362,7 +3439,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
         <v>302</v>
       </c>
@@ -3370,7 +3447,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
         <v>304</v>
       </c>
@@ -3378,7 +3455,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
         <v>306</v>
       </c>
@@ -3386,7 +3463,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
         <v>308</v>
       </c>
@@ -3394,7 +3471,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
         <v>310</v>
       </c>
@@ -3402,7 +3479,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
         <v>311</v>
       </c>
@@ -3410,7 +3487,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
         <v>313</v>
       </c>
@@ -3421,7 +3498,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
         <v>314</v>
       </c>
@@ -3432,7 +3509,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
         <v>315</v>
       </c>
@@ -3443,7 +3520,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
         <v>317</v>
       </c>
@@ -3454,7 +3531,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
         <v>318</v>
       </c>
@@ -3462,7 +3539,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3">
       <c r="A215" t="s">
         <v>319</v>
       </c>
@@ -3473,7 +3550,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
         <v>320</v>
       </c>
@@ -3481,7 +3558,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3">
       <c r="A217" t="s">
         <v>322</v>
       </c>
@@ -3492,7 +3569,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
         <v>324</v>
       </c>
@@ -3500,7 +3577,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
         <v>325</v>
       </c>
@@ -3508,7 +3585,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
         <v>327</v>
       </c>
@@ -3519,7 +3596,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
         <v>328</v>
       </c>
@@ -3527,7 +3604,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3">
       <c r="A222" t="s">
         <v>329</v>
       </c>
@@ -3535,7 +3612,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
         <v>331</v>
       </c>
@@ -3543,7 +3620,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3">
       <c r="A224" t="s">
         <v>333</v>
       </c>
@@ -3551,7 +3628,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2">
       <c r="A225" t="s">
         <v>335</v>
       </c>
@@ -3559,7 +3636,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2">
       <c r="A226" t="s">
         <v>337</v>
       </c>
@@ -3567,7 +3644,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2">
       <c r="A227" t="s">
         <v>338</v>
       </c>
@@ -3575,7 +3652,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2">
       <c r="A228" t="s">
         <v>340</v>
       </c>
@@ -3583,7 +3660,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2">
       <c r="A229" t="s">
         <v>342</v>
       </c>
@@ -3591,7 +3668,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2">
       <c r="A230" t="s">
         <v>343</v>
       </c>
@@ -3599,7 +3676,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2">
       <c r="A231" t="s">
         <v>345</v>
       </c>
@@ -3607,7 +3684,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2">
       <c r="A232" t="s">
         <v>347</v>
       </c>
@@ -3615,7 +3692,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2">
       <c r="A233" t="s">
         <v>349</v>
       </c>
@@ -3623,7 +3700,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2">
       <c r="A234" t="s">
         <v>350</v>
       </c>
@@ -3631,7 +3708,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2">
       <c r="A235" t="s">
         <v>351</v>
       </c>
@@ -3639,7 +3716,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2">
       <c r="A236" t="s">
         <v>353</v>
       </c>
@@ -3647,7 +3724,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2">
       <c r="A237" t="s">
         <v>355</v>
       </c>
@@ -3655,7 +3732,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2">
       <c r="A238" t="s">
         <v>357</v>
       </c>
@@ -3663,7 +3740,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2">
       <c r="A239" t="s">
         <v>358</v>
       </c>
@@ -3671,7 +3748,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2">
       <c r="A240" t="s">
         <v>359</v>
       </c>
@@ -3679,7 +3756,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3">
       <c r="A241" t="s">
         <v>360</v>
       </c>
@@ -3690,7 +3767,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3">
       <c r="A242" t="s">
         <v>361</v>
       </c>
@@ -3698,7 +3775,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3">
       <c r="A243" t="s">
         <v>362</v>
       </c>
@@ -3706,7 +3783,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3">
       <c r="A244" t="s">
         <v>363</v>
       </c>
@@ -3714,7 +3791,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3">
       <c r="A245" t="s">
         <v>364</v>
       </c>
@@ -3725,7 +3802,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3">
       <c r="A246" t="s">
         <v>365</v>
       </c>
@@ -3733,7 +3810,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3">
       <c r="A247" t="s">
         <v>366</v>
       </c>
@@ -3741,7 +3818,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3">
       <c r="A248" t="s">
         <v>368</v>
       </c>
@@ -3752,7 +3829,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3">
       <c r="A249" t="s">
         <v>369</v>
       </c>
@@ -3763,7 +3840,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3">
       <c r="A250" t="s">
         <v>371</v>
       </c>
@@ -3771,7 +3848,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3">
       <c r="A251" t="s">
         <v>372</v>
       </c>
@@ -3782,7 +3859,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3">
       <c r="A252" t="s">
         <v>373</v>
       </c>
@@ -3793,7 +3870,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3">
       <c r="A253" t="s">
         <v>375</v>
       </c>
@@ -3804,15 +3881,18 @@
         <v>426</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" ht="22.5">
       <c r="A254" t="s">
         <v>376</v>
       </c>
       <c r="B254" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C254" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
       <c r="A255" t="s">
         <v>377</v>
       </c>
@@ -3820,7 +3900,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3">
       <c r="A256" t="s">
         <v>379</v>
       </c>
@@ -3828,7 +3908,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4">
       <c r="A257" t="s">
         <v>381</v>
       </c>
@@ -3836,7 +3916,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4">
       <c r="A258" t="s">
         <v>383</v>
       </c>
@@ -3844,7 +3924,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4">
       <c r="A259" t="s">
         <v>384</v>
       </c>
@@ -3852,7 +3932,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4">
       <c r="A260" t="s">
         <v>386</v>
       </c>
@@ -3860,7 +3940,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4">
       <c r="A261" t="s">
         <v>388</v>
       </c>
@@ -3868,7 +3948,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4">
       <c r="A262" t="s">
         <v>390</v>
       </c>
@@ -3876,7 +3956,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4">
       <c r="A263" t="s">
         <v>392</v>
       </c>
@@ -3884,7 +3964,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4">
       <c r="A264" t="s">
         <v>393</v>
       </c>
@@ -3892,15 +3972,18 @@
         <v>394</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" ht="22.5">
       <c r="A265" t="s">
         <v>395</v>
       </c>
       <c r="B265" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C265" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
       <c r="A266" t="s">
         <v>396</v>
       </c>
@@ -3911,7 +3994,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4">
       <c r="A267" t="s">
         <v>397</v>
       </c>
@@ -3922,7 +4005,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4">
       <c r="A268" t="s">
         <v>398</v>
       </c>
@@ -3933,7 +4016,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4">
       <c r="A269" t="s">
         <v>399</v>
       </c>
@@ -3944,7 +4027,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4">
       <c r="A270" t="s">
         <v>400</v>
       </c>
@@ -3962,24 +4045,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/translate.xlsx
+++ b/translate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="453">
   <si>
     <t>Account</t>
   </si>
@@ -1369,6 +1369,12 @@
   </si>
   <si>
     <t>高度選択</t>
+  </si>
+  <si>
+    <t>新</t>
+  </si>
+  <si>
+    <t>番号</t>
   </si>
 </sst>
 </file>
@@ -1723,8 +1729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D270"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2836,7 +2842,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>182</v>
       </c>
@@ -2844,7 +2850,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>183</v>
       </c>
@@ -2852,7 +2858,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>185</v>
       </c>
@@ -2860,7 +2866,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>187</v>
       </c>
@@ -2868,7 +2874,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>189</v>
       </c>
@@ -2876,23 +2882,29 @@
         <v>189</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>190</v>
       </c>
       <c r="B134" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="135" spans="1:2">
+      <c r="C134" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>191</v>
       </c>
       <c r="B135" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="136" spans="1:2">
+      <c r="C135" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>192</v>
       </c>
@@ -2900,7 +2912,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>194</v>
       </c>
@@ -2908,7 +2920,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>196</v>
       </c>
@@ -2916,7 +2928,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>197</v>
       </c>
@@ -2924,7 +2936,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>199</v>
       </c>
@@ -2932,7 +2944,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>200</v>
       </c>
@@ -2940,7 +2952,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>201</v>
       </c>
@@ -2948,7 +2960,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>202</v>
       </c>
@@ -2956,7 +2968,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>203</v>
       </c>

--- a/translate.xlsx
+++ b/translate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="458">
   <si>
     <t>Account</t>
   </si>
@@ -1374,7 +1374,22 @@
     <t>新</t>
   </si>
   <si>
-    <t>番号</t>
+    <t>10月</t>
+  </si>
+  <si>
+    <t>古い</t>
+  </si>
+  <si>
+    <t>いいえ</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>月例</t>
+  </si>
+  <si>
+    <t>委細</t>
   </si>
 </sst>
 </file>
@@ -1729,8 +1744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2291,6 +2306,9 @@
       <c r="B60" t="s">
         <v>90</v>
       </c>
+      <c r="C60" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
@@ -2714,7 +2732,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>160</v>
       </c>
@@ -2722,7 +2740,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>161</v>
       </c>
@@ -2730,7 +2748,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>162</v>
       </c>
@@ -2738,7 +2756,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>163</v>
       </c>
@@ -2746,7 +2764,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>164</v>
       </c>
@@ -2754,7 +2772,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>166</v>
       </c>
@@ -2762,7 +2780,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>168</v>
       </c>
@@ -2770,7 +2788,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>169</v>
       </c>
@@ -2778,7 +2796,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>171</v>
       </c>
@@ -2786,7 +2804,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>172</v>
       </c>
@@ -2794,7 +2812,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>173</v>
       </c>
@@ -2802,7 +2820,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>174</v>
       </c>
@@ -2810,7 +2828,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>176</v>
       </c>
@@ -2818,7 +2836,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>177</v>
       </c>
@@ -2826,7 +2844,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>179</v>
       </c>
@@ -2834,12 +2852,15 @@
         <v>180</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>181</v>
       </c>
       <c r="B128" t="s">
         <v>181</v>
+      </c>
+      <c r="C128" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2849,6 +2870,9 @@
       <c r="B129" t="s">
         <v>182</v>
       </c>
+      <c r="C129" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
@@ -2901,7 +2925,7 @@
         <v>191</v>
       </c>
       <c r="C135" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2943,6 +2967,9 @@
       <c r="B140" t="s">
         <v>199</v>
       </c>
+      <c r="C140" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
@@ -2950,6 +2977,9 @@
       </c>
       <c r="B141" t="s">
         <v>200</v>
+      </c>
+      <c r="C141" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="142" spans="1:3">
